--- a/biology/Zoologie/Cephalaspis/Cephalaspis.xlsx
+++ b/biology/Zoologie/Cephalaspis/Cephalaspis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cephalaspis (du grec képhalê : « tête », et aspis : « bouclier ») est un genre éteint de vertébrés ostracodermes, un des premiers poissons agnathes (sans mâchoires). Il a vécu durant le Dévonien inférieur, il y a environ entre -415 à 398 Ma (millions d'années).
 </t>
@@ -511,11 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Comme ses autres ostracodermes, Cephalaspis était fortement caparaçonné, pouvant le protéger contre les placodermes et les euryptérides, servant peut-être de source de calcium pour les fonctions métaboliques dans des environnements d'eau douce pauvres en calcium. De la taille d'une truite, il vivait principalement dans les estuaires de l'époque. Il possédait des plaques sensorielles le long du bord et du centre de son bouclier crânien, qu'il utilisait vraisemblablement pour détecter la présence de vers, de mollusques, de crustacés, de trilobites et d'autres organismes fouisseurs dont il se nourrissait.
-Régime
-Sa bouche étant située directement sous sa tête, Cephalaspis a été considéré comme un détritivore, tel un poisson-chat ou un esturgeon. La tête de Cephalaspis pouvait lui servir, comme un soc de charrue, à fouir les sédiments du fond des cours d'eau dans un mouvement de balancier latéral (droite-gauche)[1].
 </t>
         </is>
       </c>
@@ -541,13 +553,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Dans la culture populaire</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dans la série documentaire britannique « Sur la terre des géants », réalisée par la BBC en 2005, les Cephalaspis sont poursuivis par les Brontoscorpions. Dans la première scène où ces deux animaux s'affrontent, un Brontoscorpion est tué par une femelle Pterygotus qui laisse ses restes à ses petits. Plus tard dans le film, les Cephalaspis doivent franchir une crête pour passer de la rivière à leur étang natal. Les premiers passent, mais les Brontoscorpions qui guettaient là, attrapent la plupart des autres. Dans l'émission, ils montrent que les arthropodes de l'époque pouvaient vivre sur la terre ferme grâce à des poumons. À cette même époque, les poissons comme Cephalaspis, pourvus de branchies, ne peuvent pas encore aller à terre car leur vessie natatoire n'a pas encore évolué en poumons.
-En réalité, il est fortement improbable que Brontoscorpio et Cephalaspis se soient côtoyés, le premier vivant à la fin du Silurien, le deuxième au début du Dévonien. Brontoscorpio devait chasser des membres d'âge silurien de Cephalaspis, tels que Ateleaspis, Procephalaspis et Tremataspis.
+          <t>Régime</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa bouche étant située directement sous sa tête, Cephalaspis a été considéré comme un détritivore, tel un poisson-chat ou un esturgeon. La tête de Cephalaspis pouvait lui servir, comme un soc de charrue, à fouir les sédiments du fond des cours d'eau dans un mouvement de balancier latéral (droite-gauche).
 </t>
         </is>
       </c>
@@ -573,13 +590,52 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Dans la culture populaire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans la série documentaire britannique « Sur la terre des géants », réalisée par la BBC en 2005, les Cephalaspis sont poursuivis par les Brontoscorpions. Dans la première scène où ces deux animaux s'affrontent, un Brontoscorpion est tué par une femelle Pterygotus qui laisse ses restes à ses petits. Plus tard dans le film, les Cephalaspis doivent franchir une crête pour passer de la rivière à leur étang natal. Les premiers passent, mais les Brontoscorpions qui guettaient là, attrapent la plupart des autres. Dans l'émission, ils montrent que les arthropodes de l'époque pouvaient vivre sur la terre ferme grâce à des poumons. À cette même époque, les poissons comme Cephalaspis, pourvus de branchies, ne peuvent pas encore aller à terre car leur vessie natatoire n'a pas encore évolué en poumons.
+En réalité, il est fortement improbable que Brontoscorpio et Cephalaspis se soient côtoyés, le premier vivant à la fin du Silurien, le deuxième au début du Dévonien. Brontoscorpio devait chasser des membres d'âge silurien de Cephalaspis, tels que Ateleaspis, Procephalaspis et Tremataspis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Cephalaspis</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalaspis</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Espèces incluses
-†Cephalaspis lyelli (Agassiz, 1835) (type)
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces incluses</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>†Cephalaspis lyelli (Agassiz, 1835) (type)
 †Cephalaspis aarhusi (Wangsjö, 1952)
 †Cephalaspis agassizi (Lankester, 1868)
 †Cephalaspis brevirostris (Denison, 1952)
@@ -602,11 +658,45 @@
 †Cephalaspis verrulosa (Wangsjö, 1952)
 †Cephalaspis websteri (Stensiö, 1932)
 †Cephalaspis whitbachensis (Stensiö, 1932)
-†Cephalaspis wyomingensis (Denison, 1952)
-Noms de Cephalaspis ayant été réassignés
-†Cephalaspis corystis (Wangsjö, 1952) = Machairaspis corystis
+†Cephalaspis wyomingensis (Denison, 1952)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cephalaspis</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalaspis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Noms de Cephalaspis ayant été réassignés</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>†Cephalaspis corystis (Wangsjö, 1952) = Machairaspis corystis
 †Cephalaspis excellens (Wangsjö, 1952) = Waengsjoeaspis excellens
-†Cephalaspis elegans (Balabai, 1962)[2] = Zychaspis siemiradzkii[3]
+†Cephalaspis elegans (Balabai, 1962) = Zychaspis siemiradzkii
 †Cephalaspis hastata (Wangsjö, 1952) = Machairaspis hastata
 †Cephalaspis hoeli (Stensiö, 1927) = Mimetaspis hoeli
 †Cephalaspis ibex (Wangsjö, 1952) = Machairaspis ibex
@@ -619,9 +709,43 @@
 †Cephalaspis rosamundae (Roberts, 1937) = Escuminaspis laticeps
 †Cephalaspis rostrata (Agassiz, 1835) = Pteraspis rostrata
 †Cephalaspis salweyi (Egerton, 1857) = Zenaspis salweyi
-†Cephalaspis utahensis (Branson &amp; Mehl, 1931) = Camptaspis utahensis
-Autres noms ayant été assignés un jour à Cephalaspis
-†Cephalaspis abergavenniensis (White, 1963)
+†Cephalaspis utahensis (Branson &amp; Mehl, 1931) = Camptaspis utahensis</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Cephalaspis</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cephalaspis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres noms ayant été assignés un jour à Cephalaspis</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>†Cephalaspis abergavenniensis (White, 1963)
 †Cephalaspis acuticornis (Stensiö, 1927)
 †Cephalaspis billcrofti (White &amp; Toombs, 1983)
 †Cephalaspis campbelltonensis (Whiteaves, 1881)
